--- a/data/prepped/MetricSources.xlsx
+++ b/data/prepped/MetricSources.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seek/Documents/GitProjects/MyProjects/QRFcapacity/data/prepped/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{100C8CE5-BF7E-2549-B755-3AED37A07F52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67A6DB-82B2-C342-815E-FFF47B3BC284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5800" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{63395C09-D57F-C64C-B6BC-1B1F1C19F834}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metrics!$A$2:$Q$123</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Metrics!$A$2:$R$123</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -52,7 +52,7 @@
     <author>tc={25256BBC-948F-9C47-A55B-42D4B38DC95F}</author>
   </authors>
   <commentList>
-    <comment ref="O2" authorId="0" shapeId="0" xr:uid="{A2161023-4DEB-0B4B-8616-452B51FF37AA}">
+    <comment ref="P2" authorId="0" shapeId="0" xr:uid="{A2161023-4DEB-0B4B-8616-452B51FF37AA}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -76,7 +76,7 @@
     Generated on the HUC6 (or HUC12) scale</t>
       </text>
     </comment>
-    <comment ref="I18" authorId="3" shapeId="0" xr:uid="{CBE4D7DA-26E8-A344-B23D-C28B9CF75007}">
+    <comment ref="J18" authorId="3" shapeId="0" xr:uid="{CBE4D7DA-26E8-A344-B23D-C28B9CF75007}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -92,7 +92,7 @@
     Generated at the HUC6 (HUC12) scale via GIS</t>
       </text>
     </comment>
-    <comment ref="N69" authorId="5" shapeId="0" xr:uid="{D451E4BA-921E-1841-B73B-B3F984D1A221}">
+    <comment ref="O69" authorId="5" shapeId="0" xr:uid="{D451E4BA-921E-1841-B73B-B3F984D1A221}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -100,7 +100,7 @@
     LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</t>
       </text>
     </comment>
-    <comment ref="O69" authorId="6" shapeId="0" xr:uid="{27EE2490-F0F2-BB48-9F9F-8D29C922E1FF}">
+    <comment ref="P69" authorId="6" shapeId="0" xr:uid="{27EE2490-F0F2-BB48-9F9F-8D29C922E1FF}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -108,7 +108,7 @@
     LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</t>
       </text>
     </comment>
-    <comment ref="P69" authorId="7" shapeId="0" xr:uid="{94412283-5F0B-0644-8812-050FA53629F1}">
+    <comment ref="Q69" authorId="7" shapeId="0" xr:uid="{94412283-5F0B-0644-8812-050FA53629F1}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -116,7 +116,7 @@
     LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</t>
       </text>
     </comment>
-    <comment ref="Q91" authorId="8" shapeId="0" xr:uid="{D9EB0029-D380-4C48-8D7F-2B37CB6DD0B7}">
+    <comment ref="R91" authorId="8" shapeId="0" xr:uid="{D9EB0029-D380-4C48-8D7F-2B37CB6DD0B7}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -124,7 +124,7 @@
     Maybe from an NHD layer?</t>
       </text>
     </comment>
-    <comment ref="Q92" authorId="9" shapeId="0" xr:uid="{F129A70A-7A3F-9247-A2CC-0C68F6FA1F1B}">
+    <comment ref="R92" authorId="9" shapeId="0" xr:uid="{F129A70A-7A3F-9247-A2CC-0C68F6FA1F1B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -132,7 +132,7 @@
     Maybe from an NHD layer?</t>
       </text>
     </comment>
-    <comment ref="I94" authorId="10" shapeId="0" xr:uid="{3E2F48D9-55D4-4E4D-9F04-DD1D1BE95A63}">
+    <comment ref="J94" authorId="10" shapeId="0" xr:uid="{3E2F48D9-55D4-4E4D-9F04-DD1D1BE95A63}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -140,7 +140,7 @@
     Measured at TOS, BOS and anywhere &gt; 25% of the flow exits or enters the main channel</t>
       </text>
     </comment>
-    <comment ref="Q111" authorId="11" shapeId="0" xr:uid="{25256BBC-948F-9C47-A55B-42D4B38DC95F}">
+    <comment ref="R111" authorId="11" shapeId="0" xr:uid="{25256BBC-948F-9C47-A55B-42D4B38DC95F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -153,7 +153,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1736" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1858" uniqueCount="167">
   <si>
     <t>SPATIAL SCALE</t>
   </si>
@@ -651,6 +651,9 @@
   </si>
   <si>
     <t>DATA SOURCE</t>
+  </si>
+  <si>
+    <t>CHaMP</t>
   </si>
 </sst>
 </file>
@@ -768,12 +771,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -822,7 +822,77 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="4" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1159,7 +1229,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="O2" dT="2020-10-19T20:05:44.17" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{A2161023-4DEB-0B4B-8616-452B51FF37AA}">
+  <threadedComment ref="P2" dT="2020-10-19T20:05:44.17" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{A2161023-4DEB-0B4B-8616-452B51FF37AA}">
     <text>To run GUT, there are some additional inputs other than green LiDAR data. RBT can generate these inputs, but they may be able to be generated independently (perhaps in a simpler way)</text>
   </threadedComment>
   <threadedComment ref="C6" dT="2020-10-19T18:01:25.26" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{342A0F99-0771-1441-BA81-C287F114AA80}">
@@ -1168,31 +1238,31 @@
   <threadedComment ref="C7" dT="2020-10-19T18:01:41.80" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{FE0D7474-6A4E-A543-833E-A2E2784703FE}">
     <text>Generated on the HUC6 (or HUC12) scale</text>
   </threadedComment>
-  <threadedComment ref="I18" dT="2020-10-19T18:00:53.28" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{CBE4D7DA-26E8-A344-B23D-C28B9CF75007}">
+  <threadedComment ref="J18" dT="2020-10-19T18:00:53.28" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{CBE4D7DA-26E8-A344-B23D-C28B9CF75007}">
     <text>If we used a refined NHD layer to generate a centerline to use for lengths</text>
   </threadedComment>
   <threadedComment ref="C54" dT="2020-10-19T18:16:56.35" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{B4E3FA34-8D02-B54B-9EE1-092B5E55E02E}">
     <text>Generated at the HUC6 (HUC12) scale via GIS</text>
   </threadedComment>
-  <threadedComment ref="N69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{D451E4BA-921E-1841-B73B-B3F984D1A221}">
+  <threadedComment ref="O69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{D451E4BA-921E-1841-B73B-B3F984D1A221}">
     <text>LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</text>
   </threadedComment>
-  <threadedComment ref="O69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{27EE2490-F0F2-BB48-9F9F-8D29C922E1FF}">
+  <threadedComment ref="P69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{27EE2490-F0F2-BB48-9F9F-8D29C922E1FF}">
     <text>LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</text>
   </threadedComment>
-  <threadedComment ref="P69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{94412283-5F0B-0644-8812-050FA53629F1}">
+  <threadedComment ref="Q69" dT="2020-10-19T19:50:42.74" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{94412283-5F0B-0644-8812-050FA53629F1}">
     <text>LiDAR may not find all the small side channels. It depends on the size of the side channel and the riparian cover over it.</text>
   </threadedComment>
-  <threadedComment ref="Q91" dT="2020-10-19T20:40:17.19" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{D9EB0029-D380-4C48-8D7F-2B37CB6DD0B7}">
+  <threadedComment ref="R91" dT="2020-10-19T20:40:17.19" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{D9EB0029-D380-4C48-8D7F-2B37CB6DD0B7}">
     <text>Maybe from an NHD layer?</text>
   </threadedComment>
-  <threadedComment ref="Q92" dT="2020-10-19T20:40:17.19" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{F129A70A-7A3F-9247-A2CC-0C68F6FA1F1B}">
+  <threadedComment ref="R92" dT="2020-10-19T20:40:17.19" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{F129A70A-7A3F-9247-A2CC-0C68F6FA1F1B}">
     <text>Maybe from an NHD layer?</text>
   </threadedComment>
-  <threadedComment ref="I94" dT="2020-10-19T18:33:55.52" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{3E2F48D9-55D4-4E4D-9F04-DD1D1BE95A63}">
+  <threadedComment ref="J94" dT="2020-10-19T18:33:55.52" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{3E2F48D9-55D4-4E4D-9F04-DD1D1BE95A63}">
     <text>Measured at TOS, BOS and anywhere &gt; 25% of the flow exits or enters the main channel</text>
   </threadedComment>
-  <threadedComment ref="Q111" dT="2020-10-19T20:29:53.76" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{25256BBC-948F-9C47-A55B-42D4B38DC95F}">
+  <threadedComment ref="R111" dT="2020-10-19T20:29:53.76" personId="{3C714903-4834-D647-87F4-B2591516DAE2}" id="{25256BBC-948F-9C47-A55B-42D4B38DC95F}">
     <text>This would come from the NoRWeST temperature models</text>
   </threadedComment>
 </ThreadedComments>
@@ -1200,13 +1270,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{436B22A6-5045-114B-9919-B451DC3EB714}">
-  <dimension ref="A1:Q123"/>
+  <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="G72" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="M84" sqref="M84"/>
+      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1214,93 +1284,98 @@
     <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.83203125" customWidth="1"/>
-    <col min="11" max="11" width="33.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="27.5" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.6640625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="16.1640625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" customWidth="1"/>
+    <col min="12" max="12" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="27.5" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D1" s="5" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="H1" s="7" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="H1" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" s="9" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="I2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>162</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="P2" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="Q2" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="R2" s="15" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>117</v>
       </c>
@@ -1310,44 +1385,47 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>118</v>
       </c>
@@ -1357,44 +1435,47 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1404,29 +1485,29 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="8" t="s">
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" s="2" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N5" s="1" t="s">
         <v>19</v>
@@ -1435,13 +1516,16 @@
         <v>19</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1451,22 +1535,22 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M6" s="1" t="s">
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N6" s="1" t="s">
@@ -1479,10 +1563,13 @@
         <v>20</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1492,22 +1579,22 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>20</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M7" s="1" t="s">
+      <c r="J7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N7" s="1" t="s">
@@ -1520,10 +1607,13 @@
         <v>20</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1533,25 +1623,25 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>20</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M8" s="1" t="s">
+      <c r="J8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N8" s="1" t="s">
@@ -1564,10 +1654,13 @@
         <v>20</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1577,32 +1670,32 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="8" t="s">
+      <c r="D9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="L9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="N9" s="1" t="s">
         <v>19</v>
@@ -1611,13 +1704,16 @@
         <v>19</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>112</v>
       </c>
@@ -1627,44 +1723,47 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="8" t="s">
+      <c r="D10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>20</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L10" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -1674,27 +1773,27 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8" t="s">
+      <c r="D11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>20</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L11" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1702,16 +1801,19 @@
         <v>20</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>116</v>
       </c>
@@ -1721,14 +1823,14 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8" t="s">
+      <c r="D12" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>20</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>20</v>
@@ -1737,11 +1839,11 @@
         <v>20</v>
       </c>
       <c r="K12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M12" s="1" t="s">
         <v>20</v>
       </c>
@@ -1749,16 +1851,19 @@
         <v>20</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>115</v>
       </c>
@@ -1768,27 +1873,27 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="8" t="s">
+      <c r="D13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>20</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M13" s="1" t="s">
         <v>20</v>
       </c>
@@ -1796,16 +1901,19 @@
         <v>20</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -1815,14 +1923,14 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="8" t="s">
+      <c r="D14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>20</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>20</v>
@@ -1831,28 +1939,31 @@
         <v>20</v>
       </c>
       <c r="K14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="M14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>111</v>
       </c>
@@ -1862,17 +1973,17 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="8" t="s">
+      <c r="E15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>20</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>12</v>
@@ -1881,25 +1992,28 @@
         <v>12</v>
       </c>
       <c r="L15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1909,44 +2023,47 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>20</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K16" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -1956,17 +2073,17 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="8" t="s">
+      <c r="E17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>20</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>12</v>
@@ -1975,25 +2092,28 @@
         <v>12</v>
       </c>
       <c r="L17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>58</v>
       </c>
@@ -2003,44 +2123,47 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="8" t="s">
+      <c r="E18" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>20</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J18" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -2050,44 +2173,47 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="8" t="s">
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>20</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J19" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="M19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -2097,14 +2223,14 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="8" t="s">
+      <c r="E20" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>20</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
         <v>20</v>
@@ -2113,11 +2239,11 @@
         <v>20</v>
       </c>
       <c r="K20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M20" s="1" t="s">
         <v>20</v>
       </c>
@@ -2125,16 +2251,19 @@
         <v>20</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2144,44 +2273,47 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="8" t="s">
+      <c r="E21" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>20</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="M21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2191,17 +2323,17 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="8" t="s">
+      <c r="E22" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>20</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>12</v>
@@ -2210,25 +2342,28 @@
         <v>12</v>
       </c>
       <c r="L22" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>57</v>
       </c>
@@ -2238,44 +2373,47 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="8" t="s">
+      <c r="E23" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>20</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J23" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K23" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2285,44 +2423,47 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="8" t="s">
+      <c r="E24" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>20</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J24" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -2332,14 +2473,14 @@
       <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="8" t="s">
+      <c r="E25" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>20</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>20</v>
@@ -2348,28 +2489,31 @@
         <v>20</v>
       </c>
       <c r="K25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="M25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O25" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -2379,44 +2523,47 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="8" t="s">
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>20</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="M26" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -2426,17 +2573,17 @@
       <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="8" t="s">
+      <c r="E27" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>20</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
         <v>12</v>
@@ -2445,25 +2592,28 @@
         <v>12</v>
       </c>
       <c r="L27" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P27" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -2473,44 +2623,47 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="8" t="s">
+      <c r="E28" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>20</v>
+      <c r="H28" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K28" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L28" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -2520,44 +2673,47 @@
       <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="E29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>20</v>
+      <c r="H29" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="M29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="N29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P29" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -2567,14 +2723,14 @@
       <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="E30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="1" t="s">
-        <v>20</v>
+      <c r="H30" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>20</v>
@@ -2583,11 +2739,11 @@
         <v>20</v>
       </c>
       <c r="K30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L30" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L30" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M30" s="1" t="s">
         <v>20</v>
       </c>
@@ -2595,16 +2751,19 @@
         <v>20</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P30" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>42</v>
       </c>
@@ -2614,44 +2773,47 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="E31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>20</v>
+      <c r="H31" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>40</v>
       </c>
@@ -2661,14 +2823,14 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="E32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>20</v>
+      <c r="H32" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>20</v>
@@ -2677,28 +2839,31 @@
         <v>20</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q32" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -2708,14 +2873,14 @@
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="E33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="1" t="s">
-        <v>20</v>
+      <c r="H33" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>20</v>
@@ -2724,28 +2889,31 @@
         <v>20</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q33" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>46</v>
       </c>
@@ -2755,14 +2923,14 @@
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="E34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="1" t="s">
-        <v>20</v>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>20</v>
@@ -2771,28 +2939,31 @@
         <v>20</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O34" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P34" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q34" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>44</v>
       </c>
@@ -2802,14 +2973,14 @@
       <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="E35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="1" t="s">
-        <v>20</v>
+      <c r="H35" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>20</v>
@@ -2818,28 +2989,31 @@
         <v>20</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O35" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -2849,17 +3023,17 @@
       <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D36" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="E36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="1" t="s">
-        <v>20</v>
+      <c r="H36" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>20</v>
@@ -2868,28 +3042,31 @@
         <v>20</v>
       </c>
       <c r="K36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L36" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M36" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O36" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q36" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2899,17 +3076,17 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="D37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="1" t="s">
-        <v>20</v>
+      <c r="H37" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>20</v>
@@ -2917,14 +3094,14 @@
       <c r="J37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N37" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N37" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="O37" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P37" s="1" t="s">
         <v>20</v>
@@ -2932,8 +3109,11 @@
       <c r="Q37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>43</v>
       </c>
@@ -2943,17 +3123,17 @@
       <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="8" t="s">
+      <c r="D38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="1" t="s">
-        <v>20</v>
+      <c r="H38" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>20</v>
@@ -2962,28 +3142,31 @@
         <v>20</v>
       </c>
       <c r="K38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L38" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M38" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N38" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q38" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q38" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>27</v>
       </c>
@@ -2993,35 +3176,35 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="8" t="s">
+      <c r="E39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K39" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N39" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>20</v>
@@ -3029,8 +3212,11 @@
       <c r="Q39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -3040,38 +3226,41 @@
       <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="8" t="s">
+      <c r="E40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I40" s="4" t="s">
+      <c r="H40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N40" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O40" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P40" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3081,44 +3270,47 @@
       <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="8" t="s">
+      <c r="E41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M41" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N41" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O41" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P41" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q41" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3128,17 +3320,17 @@
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="8" t="s">
+      <c r="D42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="1" t="s">
-        <v>20</v>
+      <c r="H42" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>20</v>
@@ -3147,28 +3339,31 @@
         <v>20</v>
       </c>
       <c r="K42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L42" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L42" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M42" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N42" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O42" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P42" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q42" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3178,17 +3373,17 @@
       <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="8" t="s">
+      <c r="D43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="1" t="s">
-        <v>20</v>
+      <c r="H43" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>20</v>
@@ -3197,28 +3392,31 @@
         <v>20</v>
       </c>
       <c r="K43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L43" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M43" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N43" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O43" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q43" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>48</v>
       </c>
@@ -3228,47 +3426,50 @@
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="8" t="s">
+      <c r="D44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="1" t="s">
-        <v>20</v>
+      <c r="H44" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L44" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M44" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N44" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P44" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="Q44" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>103</v>
       </c>
@@ -3278,20 +3479,20 @@
       <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="8" t="s">
+      <c r="D45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="1" t="s">
-        <v>20</v>
+      <c r="H45" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
         <v>12</v>
@@ -3300,7 +3501,7 @@
         <v>12</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M45" s="1" t="s">
         <v>20</v>
@@ -3317,8 +3518,11 @@
       <c r="Q45" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>100</v>
       </c>
@@ -3328,20 +3532,20 @@
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="8" t="s">
+      <c r="D46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="1" t="s">
-        <v>20</v>
+      <c r="H46" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
         <v>12</v>
@@ -3350,7 +3554,7 @@
         <v>12</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M46" s="1" t="s">
         <v>20</v>
@@ -3367,8 +3571,11 @@
       <c r="Q46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>96</v>
       </c>
@@ -3378,20 +3585,20 @@
       <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="8" t="s">
+      <c r="D47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="1" t="s">
-        <v>20</v>
+      <c r="H47" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
         <v>12</v>
@@ -3400,7 +3607,7 @@
         <v>12</v>
       </c>
       <c r="L47" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M47" s="1" t="s">
         <v>20</v>
@@ -3417,8 +3624,11 @@
       <c r="Q47" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>101</v>
       </c>
@@ -3428,20 +3638,20 @@
       <c r="C48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="8" t="s">
+      <c r="D48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="1" t="s">
-        <v>20</v>
+      <c r="H48" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
         <v>12</v>
@@ -3450,7 +3660,7 @@
         <v>12</v>
       </c>
       <c r="L48" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M48" s="1" t="s">
         <v>20</v>
@@ -3467,8 +3677,11 @@
       <c r="Q48" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -3478,20 +3691,20 @@
       <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="8" t="s">
+      <c r="D49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="1" t="s">
-        <v>20</v>
+      <c r="H49" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>12</v>
@@ -3500,7 +3713,7 @@
         <v>12</v>
       </c>
       <c r="L49" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M49" s="1" t="s">
         <v>20</v>
@@ -3517,8 +3730,11 @@
       <c r="Q49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>99</v>
       </c>
@@ -3528,20 +3744,20 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="8" t="s">
+      <c r="D50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="1" t="s">
-        <v>20</v>
+      <c r="H50" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
         <v>12</v>
@@ -3550,7 +3766,7 @@
         <v>12</v>
       </c>
       <c r="L50" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M50" s="1" t="s">
         <v>20</v>
@@ -3567,8 +3783,11 @@
       <c r="Q50" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>91</v>
       </c>
@@ -3578,20 +3797,20 @@
       <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="8" t="s">
+      <c r="D51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="1" t="s">
-        <v>20</v>
+      <c r="H51" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
         <v>12</v>
@@ -3600,7 +3819,7 @@
         <v>12</v>
       </c>
       <c r="L51" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M51" s="1" t="s">
         <v>20</v>
@@ -3617,8 +3836,11 @@
       <c r="Q51" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>108</v>
       </c>
@@ -3628,14 +3850,14 @@
       <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="8" t="s">
+      <c r="E52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="1" t="s">
-        <v>20</v>
+      <c r="H52" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
         <v>20</v>
@@ -3644,10 +3866,10 @@
         <v>20</v>
       </c>
       <c r="K52" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L52" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M52" s="1" t="s">
         <v>20</v>
@@ -3664,8 +3886,11 @@
       <c r="Q52" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>107</v>
       </c>
@@ -3675,17 +3900,17 @@
       <c r="C53" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="8" t="s">
+      <c r="E53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>20</v>
+      <c r="H53" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
         <v>12</v>
@@ -3694,7 +3919,7 @@
         <v>12</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M53" s="1" t="s">
         <v>20</v>
@@ -3711,8 +3936,11 @@
       <c r="Q53" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>10</v>
       </c>
@@ -3722,14 +3950,14 @@
       <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="8" t="s">
+      <c r="F54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="1" t="s">
-        <v>20</v>
+      <c r="H54" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
         <v>20</v>
@@ -3738,10 +3966,10 @@
         <v>20</v>
       </c>
       <c r="K54" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L54" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M54" s="1" t="s">
         <v>20</v>
@@ -3756,10 +3984,13 @@
         <v>20</v>
       </c>
       <c r="Q54" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R54" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -3769,14 +4000,14 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="8" t="s">
+      <c r="F55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>20</v>
+      <c r="H55" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>20</v>
@@ -3784,7 +4015,7 @@
       <c r="J55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="K55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N55" s="1" t="s">
@@ -3797,10 +4028,13 @@
         <v>20</v>
       </c>
       <c r="Q55" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R55" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>12</v>
       </c>
@@ -3810,14 +4044,14 @@
       <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="8" t="s">
+      <c r="F56" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="1" t="s">
-        <v>20</v>
+      <c r="H56" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>20</v>
@@ -3825,7 +4059,7 @@
       <c r="J56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="K56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N56" s="1" t="s">
@@ -3838,10 +4072,13 @@
         <v>20</v>
       </c>
       <c r="Q56" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R56" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -3851,20 +4088,20 @@
       <c r="C57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="8" t="s">
+      <c r="D57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="1" t="s">
-        <v>20</v>
+      <c r="H57" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>20</v>
@@ -3872,7 +4109,7 @@
       <c r="J57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="K57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N57" s="1" t="s">
@@ -3885,10 +4122,13 @@
         <v>20</v>
       </c>
       <c r="Q57" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R57" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>77</v>
       </c>
@@ -3898,23 +4138,23 @@
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="8" t="s">
+      <c r="D58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>12</v>
@@ -3923,11 +4163,11 @@
         <v>12</v>
       </c>
       <c r="M58" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N58" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N58" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O58" s="1" t="s">
         <v>20</v>
       </c>
@@ -3935,10 +4175,13 @@
         <v>20</v>
       </c>
       <c r="Q58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R58" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>90</v>
       </c>
@@ -3948,26 +4191,26 @@
       <c r="C59" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="8" t="s">
+      <c r="D59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K59" s="1" t="s">
         <v>12</v>
@@ -3976,11 +4219,11 @@
         <v>12</v>
       </c>
       <c r="M59" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N59" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N59" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O59" s="1" t="s">
         <v>20</v>
       </c>
@@ -3988,10 +4231,13 @@
         <v>20</v>
       </c>
       <c r="Q59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R59" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>78</v>
       </c>
@@ -4001,36 +4247,36 @@
       <c r="C60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="8" t="s">
+      <c r="D60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K60" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="L60" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N60" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N60" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O60" s="1" t="s">
         <v>20</v>
       </c>
@@ -4038,10 +4284,13 @@
         <v>20</v>
       </c>
       <c r="Q60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R60" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>79</v>
       </c>
@@ -4051,17 +4300,17 @@
       <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="8" t="s">
+      <c r="D61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="1" t="s">
-        <v>20</v>
+      <c r="H61" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I61" s="1" t="s">
         <v>20</v>
@@ -4070,10 +4319,10 @@
         <v>20</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M61" s="1" t="s">
         <v>20</v>
@@ -4090,8 +4339,11 @@
       <c r="Q61" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>94</v>
       </c>
@@ -4101,17 +4353,17 @@
       <c r="C62" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="D62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="1" t="s">
-        <v>20</v>
+      <c r="H62" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I62" s="1" t="s">
         <v>20</v>
@@ -4120,10 +4372,10 @@
         <v>20</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M62" s="1" t="s">
         <v>20</v>
@@ -4140,8 +4392,11 @@
       <c r="Q62" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>80</v>
       </c>
@@ -4151,29 +4406,29 @@
       <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="8" t="s">
+      <c r="D63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M63" s="1" t="s">
         <v>20</v>
@@ -4188,10 +4443,13 @@
         <v>20</v>
       </c>
       <c r="Q63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R63" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>81</v>
       </c>
@@ -4201,17 +4459,17 @@
       <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="8" t="s">
+      <c r="D64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="1" t="s">
-        <v>20</v>
+      <c r="H64" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I64" s="1" t="s">
         <v>20</v>
@@ -4220,10 +4478,10 @@
         <v>20</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L64" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M64" s="1" t="s">
         <v>20</v>
@@ -4240,8 +4498,11 @@
       <c r="Q64" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>93</v>
       </c>
@@ -4251,17 +4512,17 @@
       <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="D65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="1" t="s">
-        <v>20</v>
+      <c r="H65" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I65" s="1" t="s">
         <v>20</v>
@@ -4270,10 +4531,10 @@
         <v>20</v>
       </c>
       <c r="K65" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L65" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M65" s="1" t="s">
         <v>20</v>
@@ -4290,8 +4551,11 @@
       <c r="Q65" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>82</v>
       </c>
@@ -4301,17 +4565,17 @@
       <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="D66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H66" s="1" t="s">
-        <v>20</v>
+      <c r="H66" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I66" s="1" t="s">
         <v>20</v>
@@ -4320,10 +4584,10 @@
         <v>20</v>
       </c>
       <c r="K66" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L66" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M66" s="1" t="s">
         <v>20</v>
@@ -4340,34 +4604,37 @@
       <c r="Q66" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="8" t="s">
+      <c r="E67" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="H67" s="1" t="s">
-        <v>12</v>
+      <c r="H67" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K67" s="1"/>
+        <v>20</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="L67" s="1"/>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="1"/>
+      <c r="N67" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N67" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="O67" s="1" t="s">
         <v>20</v>
       </c>
@@ -4375,10 +4642,13 @@
         <v>20</v>
       </c>
       <c r="Q67" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R67" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>54</v>
       </c>
@@ -4388,14 +4658,14 @@
       <c r="C68" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="E68" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="1" t="s">
-        <v>20</v>
+      <c r="H68" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I68" s="1" t="s">
         <v>20</v>
@@ -4403,23 +4673,26 @@
       <c r="J68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M68" s="1" t="s">
-        <v>19</v>
+      <c r="K68" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="N68" s="1" t="s">
         <v>19</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="P68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q68" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q68" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R68" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>109</v>
       </c>
@@ -4429,35 +4702,35 @@
       <c r="C69" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="8" t="s">
+      <c r="D69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>20</v>
+      <c r="H69" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K69" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L69" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L69" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O69" s="1" t="s">
         <v>26</v>
@@ -4465,11 +4738,14 @@
       <c r="P69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q69" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R69" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>110</v>
       </c>
@@ -4479,32 +4755,32 @@
       <c r="C70" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="8" t="s">
+      <c r="E70" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H70" s="1" t="s">
-        <v>20</v>
+      <c r="H70" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K70" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L70" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L70" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O70" s="1" t="s">
         <v>26</v>
@@ -4512,11 +4788,14 @@
       <c r="P70" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q70" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R70" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>62</v>
       </c>
@@ -4526,32 +4805,32 @@
       <c r="C71" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="8" t="s">
+      <c r="E71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H71" s="1" t="s">
-        <v>20</v>
+      <c r="H71" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K71" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L71" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L71" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O71" s="1" t="s">
         <v>26</v>
@@ -4559,11 +4838,14 @@
       <c r="P71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q71" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R71" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>65</v>
       </c>
@@ -4573,13 +4855,13 @@
       <c r="C72" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="8" t="s">
+      <c r="E72" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H72" s="1" t="s">
+      <c r="H72" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -4589,16 +4871,16 @@
         <v>12</v>
       </c>
       <c r="K72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L72" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L72" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N72" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O72" s="1" t="s">
         <v>26</v>
@@ -4606,11 +4888,14 @@
       <c r="P72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q72" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R72" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>64</v>
       </c>
@@ -4620,32 +4905,32 @@
       <c r="C73" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="8" t="s">
+      <c r="E73" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H73" s="1" t="s">
+      <c r="H73" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J73" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="K73" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L73" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L73" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O73" s="1" t="s">
         <v>26</v>
@@ -4653,11 +4938,14 @@
       <c r="P73" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q73" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>66</v>
       </c>
@@ -4667,14 +4955,14 @@
       <c r="C74" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="8" t="s">
+      <c r="E74" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>20</v>
+      <c r="H74" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
         <v>20</v>
@@ -4683,16 +4971,16 @@
         <v>20</v>
       </c>
       <c r="K74" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L74" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L74" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O74" s="1" t="s">
         <v>26</v>
@@ -4700,11 +4988,14 @@
       <c r="P74" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q74" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R74" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>63</v>
       </c>
@@ -4714,32 +5005,32 @@
       <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="8" t="s">
+      <c r="E75" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H75" s="1" t="s">
-        <v>20</v>
+      <c r="H75" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K75" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L75" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L75" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O75" s="1" t="s">
         <v>26</v>
@@ -4747,11 +5038,14 @@
       <c r="P75" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q75" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R75" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>61</v>
       </c>
@@ -4761,32 +5055,32 @@
       <c r="C76" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="8" t="s">
+      <c r="E76" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>20</v>
+      <c r="H76" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K76" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L76" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L76" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O76" s="1" t="s">
         <v>26</v>
@@ -4794,11 +5088,14 @@
       <c r="P76" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q76" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R76" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>55</v>
       </c>
@@ -4808,35 +5105,35 @@
       <c r="C77" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="8" t="s">
+      <c r="D77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="1" t="s">
-        <v>20</v>
+      <c r="H77" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J77" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K77" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L77" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L77" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N77" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O77" s="1" t="s">
         <v>26</v>
@@ -4844,11 +5141,14 @@
       <c r="P77" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="Q77" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="R77" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -4858,20 +5158,20 @@
       <c r="C78" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="8" t="s">
+      <c r="D78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="1" t="s">
-        <v>20</v>
+      <c r="H78" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I78" s="1" t="s">
         <v>20</v>
@@ -4898,10 +5198,13 @@
         <v>20</v>
       </c>
       <c r="Q78" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R78" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -4911,14 +5214,14 @@
       <c r="C79" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="8" t="s">
+      <c r="E79" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H79" s="1" t="s">
-        <v>20</v>
+      <c r="H79" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
         <v>20</v>
@@ -4926,7 +5229,7 @@
       <c r="J79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M79" s="1" t="s">
+      <c r="K79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N79" s="1" t="s">
@@ -4939,10 +5242,13 @@
         <v>20</v>
       </c>
       <c r="Q79" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -4952,17 +5258,17 @@
       <c r="C80" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="8" t="s">
+      <c r="D80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H80" s="1" t="s">
-        <v>20</v>
+      <c r="H80" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I80" s="1" t="s">
         <v>20</v>
@@ -4970,7 +5276,7 @@
       <c r="J80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M80" s="1" t="s">
+      <c r="K80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N80" s="1" t="s">
@@ -4983,10 +5289,13 @@
         <v>20</v>
       </c>
       <c r="Q80" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R80" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>30</v>
       </c>
@@ -4996,17 +5305,17 @@
       <c r="C81" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="8" t="s">
+      <c r="D81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>20</v>
+      <c r="H81" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
         <v>20</v>
@@ -5015,28 +5324,31 @@
         <v>20</v>
       </c>
       <c r="K81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L81" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M81" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O81" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q81" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q81" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R81" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>29</v>
       </c>
@@ -5046,47 +5358,50 @@
       <c r="C82" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="8" t="s">
+      <c r="D82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="1" t="s">
-        <v>20</v>
+      <c r="H82" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K82" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L82" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L82" s="1" t="s">
+      <c r="M82" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M82" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N82" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O82" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q82" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q82" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R82" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>36</v>
       </c>
@@ -5096,14 +5411,14 @@
       <c r="C83" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="8" t="s">
+      <c r="E83" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>20</v>
+      <c r="H83" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I83" s="1" t="s">
         <v>20</v>
@@ -5112,28 +5427,31 @@
         <v>20</v>
       </c>
       <c r="K83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L83" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L83" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O83" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R83" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>45</v>
       </c>
@@ -5143,44 +5461,47 @@
       <c r="C84" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="8" t="s">
+      <c r="E84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K84" s="1" t="s">
+      <c r="H84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K84" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L84" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L84" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O84" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q84" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q84" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R84" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>34</v>
       </c>
@@ -5190,38 +5511,41 @@
       <c r="C85" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="8" t="s">
+      <c r="E85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M85" s="1" t="s">
+      <c r="H85" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J85" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K85" s="2" t="s">
         <v>20</v>
       </c>
       <c r="N85" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O85" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q85" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>53</v>
       </c>
@@ -5231,44 +5555,47 @@
       <c r="C86" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="8" t="s">
+      <c r="E86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K86" s="1" t="s">
+      <c r="H86" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K86" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L86" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L86" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N86" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O86" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P86" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q86" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q86" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>52</v>
       </c>
@@ -5278,44 +5605,47 @@
       <c r="C87" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="8" t="s">
+      <c r="E87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K87" s="1" t="s">
+      <c r="H87" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K87" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L87" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L87" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O87" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P87" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q87" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>59</v>
       </c>
@@ -5325,47 +5655,50 @@
       <c r="C88" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="8" t="s">
+      <c r="D88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H88" s="1" t="s">
-        <v>20</v>
+      <c r="H88" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J88" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K88" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L88" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L88" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M88" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N88" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O88" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P88" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q88" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="Q88" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -5375,17 +5708,17 @@
       <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="6" t="s">
+      <c r="D89" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="8" t="s">
+      <c r="E89" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H89" s="1" t="s">
-        <v>20</v>
+      <c r="H89" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I89" s="1" t="s">
         <v>20</v>
@@ -5394,28 +5727,31 @@
         <v>20</v>
       </c>
       <c r="K89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L89" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L89" s="1" t="s">
+      <c r="M89" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M89" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="N89" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O89" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q89" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R89" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>39</v>
       </c>
@@ -5425,14 +5761,14 @@
       <c r="C90" t="s">
         <v>117</v>
       </c>
-      <c r="E90" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="8" t="s">
+      <c r="E90" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="1" t="s">
-        <v>20</v>
+      <c r="H90" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I90" s="1" t="s">
         <v>20</v>
@@ -5441,19 +5777,19 @@
         <v>20</v>
       </c>
       <c r="K90" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L90" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L90" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M90" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="N90" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="O90" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P90" s="1" t="s">
         <v>20</v>
@@ -5461,8 +5797,11 @@
       <c r="Q90" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>28</v>
       </c>
@@ -5472,33 +5811,33 @@
       <c r="C91" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="8" t="s">
+      <c r="D91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H91" s="1" t="s">
+      <c r="H91" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K91" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L91" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L91" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M91" s="1" t="s">
         <v>12</v>
       </c>
@@ -5506,16 +5845,19 @@
         <v>12</v>
       </c>
       <c r="O91" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q91" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R91" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>37</v>
       </c>
@@ -5525,30 +5867,30 @@
       <c r="C92" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="8" t="s">
+      <c r="D92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H92" s="1" t="s">
+      <c r="H92" s="5" t="s">
         <v>12</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K92" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L92" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L92" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M92" s="1" t="s">
         <v>12</v>
       </c>
@@ -5556,16 +5898,19 @@
         <v>12</v>
       </c>
       <c r="O92" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q92" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R92" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>60</v>
       </c>
@@ -5575,17 +5920,17 @@
       <c r="C93" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="8" t="s">
+      <c r="D93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>20</v>
+      <c r="H93" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I93" s="1" t="s">
         <v>20</v>
@@ -5594,19 +5939,19 @@
         <v>20</v>
       </c>
       <c r="K93" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L93" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L93" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M93" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N93" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O93" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P93" s="1" t="s">
         <v>20</v>
@@ -5614,8 +5959,11 @@
       <c r="Q93" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>67</v>
       </c>
@@ -5625,27 +5973,27 @@
       <c r="C94" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="8" t="s">
+      <c r="E94" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H94" s="1" t="s">
-        <v>20</v>
+      <c r="H94" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K94" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L94" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="L94" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M94" s="1" t="s">
         <v>20</v>
       </c>
@@ -5656,13 +6004,16 @@
         <v>20</v>
       </c>
       <c r="P94" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="Q94" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="R94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -5672,17 +6023,17 @@
       <c r="C95" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="8" t="s">
+      <c r="D95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>20</v>
+      <c r="H95" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>20</v>
@@ -5691,19 +6042,19 @@
         <v>20</v>
       </c>
       <c r="K95" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L95" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L95" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="M95" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="N95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O95" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P95" s="1" t="s">
         <v>20</v>
@@ -5711,8 +6062,11 @@
       <c r="Q95" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>49</v>
       </c>
@@ -5722,38 +6076,38 @@
       <c r="C96" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="8" t="s">
+      <c r="D96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H96" s="1" t="s">
-        <v>20</v>
+      <c r="H96" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K96" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L96" s="1" t="s">
+      <c r="M96" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="M96" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="N96" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O96" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P96" s="1" t="s">
         <v>20</v>
@@ -5761,8 +6115,11 @@
       <c r="Q96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -5772,32 +6129,32 @@
       <c r="C97" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="8" t="s">
+      <c r="D97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="1" t="s">
-        <v>20</v>
+      <c r="H97" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M97" s="1" t="s">
+      <c r="K97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="N97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="O97" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P97" s="1" t="s">
         <v>20</v>
@@ -5805,8 +6162,11 @@
       <c r="Q97" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>70</v>
       </c>
@@ -5816,20 +6176,20 @@
       <c r="C98" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="8" t="s">
+      <c r="D98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H98" s="1" t="s">
-        <v>20</v>
+      <c r="H98" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J98" s="1" t="s">
         <v>12</v>
@@ -5838,7 +6198,7 @@
         <v>12</v>
       </c>
       <c r="L98" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M98" s="1" t="s">
         <v>20</v>
@@ -5855,8 +6215,11 @@
       <c r="Q98" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>71</v>
       </c>
@@ -5866,20 +6229,20 @@
       <c r="C99" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="8" t="s">
+      <c r="D99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="1" t="s">
-        <v>20</v>
+      <c r="H99" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J99" s="1" t="s">
         <v>12</v>
@@ -5888,7 +6251,7 @@
         <v>12</v>
       </c>
       <c r="L99" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M99" s="1" t="s">
         <v>20</v>
@@ -5905,8 +6268,11 @@
       <c r="Q99" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>72</v>
       </c>
@@ -5916,20 +6282,20 @@
       <c r="C100" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="8" t="s">
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="1" t="s">
-        <v>20</v>
+      <c r="H100" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J100" s="1" t="s">
         <v>12</v>
@@ -5938,7 +6304,7 @@
         <v>12</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M100" s="1" t="s">
         <v>20</v>
@@ -5955,8 +6321,11 @@
       <c r="Q100" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>68</v>
       </c>
@@ -5966,17 +6335,17 @@
       <c r="C101" t="s">
         <v>130</v>
       </c>
-      <c r="D101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="8" t="s">
+      <c r="D101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>20</v>
+      <c r="H101" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I101" s="1" t="s">
         <v>20</v>
@@ -5985,10 +6354,10 @@
         <v>20</v>
       </c>
       <c r="K101" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L101" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M101" s="1" t="s">
         <v>20</v>
@@ -6005,8 +6374,11 @@
       <c r="Q101" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>69</v>
       </c>
@@ -6016,17 +6388,17 @@
       <c r="C102" t="s">
         <v>131</v>
       </c>
-      <c r="D102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="8" t="s">
+      <c r="D102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>20</v>
+      <c r="H102" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I102" s="1" t="s">
         <v>20</v>
@@ -6034,7 +6406,7 @@
       <c r="J102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M102" s="1" t="s">
+      <c r="K102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N102" s="1" t="s">
@@ -6049,8 +6421,11 @@
       <c r="Q102" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>104</v>
       </c>
@@ -6060,20 +6435,20 @@
       <c r="C103" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="8" t="s">
+      <c r="D103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H103" s="1" t="s">
-        <v>20</v>
+      <c r="H103" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>12</v>
@@ -6082,7 +6457,7 @@
         <v>12</v>
       </c>
       <c r="L103" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M103" s="1" t="s">
         <v>20</v>
@@ -6099,8 +6474,11 @@
       <c r="Q103" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>105</v>
       </c>
@@ -6110,20 +6488,20 @@
       <c r="C104" t="s">
         <v>133</v>
       </c>
-      <c r="D104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="8" t="s">
+      <c r="D104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H104" s="1" t="s">
-        <v>20</v>
+      <c r="H104" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J104" s="1" t="s">
         <v>12</v>
@@ -6132,7 +6510,7 @@
         <v>12</v>
       </c>
       <c r="L104" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M104" s="1" t="s">
         <v>20</v>
@@ -6149,8 +6527,11 @@
       <c r="Q104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>95</v>
       </c>
@@ -6160,20 +6541,20 @@
       <c r="C105" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="8" t="s">
+      <c r="D105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H105" s="1" t="s">
-        <v>20</v>
+      <c r="H105" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J105" s="1" t="s">
         <v>12</v>
@@ -6182,7 +6563,7 @@
         <v>12</v>
       </c>
       <c r="L105" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M105" s="1" t="s">
         <v>20</v>
@@ -6199,8 +6580,11 @@
       <c r="Q105" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>97</v>
       </c>
@@ -6210,20 +6594,20 @@
       <c r="C106" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="8" t="s">
+      <c r="D106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H106" s="1" t="s">
-        <v>20</v>
+      <c r="H106" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>12</v>
@@ -6232,7 +6616,7 @@
         <v>12</v>
       </c>
       <c r="L106" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M106" s="1" t="s">
         <v>20</v>
@@ -6249,8 +6633,11 @@
       <c r="Q106" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>73</v>
       </c>
@@ -6260,17 +6647,17 @@
       <c r="C107" t="s">
         <v>136</v>
       </c>
-      <c r="D107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="8" t="s">
+      <c r="D107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H107" s="1" t="s">
-        <v>20</v>
+      <c r="H107" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I107" s="1" t="s">
         <v>20</v>
@@ -6278,7 +6665,7 @@
       <c r="J107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M107" s="1" t="s">
+      <c r="K107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N107" s="1" t="s">
@@ -6293,8 +6680,11 @@
       <c r="Q107" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R107" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>74</v>
       </c>
@@ -6304,17 +6694,17 @@
       <c r="C108" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="8" t="s">
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="H108" s="1" t="s">
-        <v>20</v>
+      <c r="H108" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I108" s="1" t="s">
         <v>20</v>
@@ -6322,7 +6712,7 @@
       <c r="J108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M108" s="1" t="s">
+      <c r="K108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="N108" s="1" t="s">
@@ -6337,8 +6727,11 @@
       <c r="Q108" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -6348,17 +6741,17 @@
       <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="8" t="s">
+      <c r="D109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H109" s="1" t="s">
-        <v>20</v>
+      <c r="H109" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I109" s="1" t="s">
         <v>20</v>
@@ -6367,11 +6760,11 @@
         <v>20</v>
       </c>
       <c r="K109" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L109" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L109" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="M109" s="1" t="s">
         <v>12</v>
       </c>
@@ -6379,16 +6772,19 @@
         <v>12</v>
       </c>
       <c r="O109" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="Q109" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R109" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>92</v>
       </c>
@@ -6398,17 +6794,17 @@
       <c r="C110" t="s">
         <v>140</v>
       </c>
-      <c r="E110" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="8" t="s">
+      <c r="E110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H110" s="1" t="s">
-        <v>20</v>
+      <c r="H110" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I110" s="1" t="s">
         <v>20</v>
@@ -6417,10 +6813,10 @@
         <v>20</v>
       </c>
       <c r="K110" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L110" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M110" s="1" t="s">
         <v>20</v>
@@ -6435,23 +6831,26 @@
         <v>20</v>
       </c>
       <c r="Q110" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R110" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C111" t="s">
         <v>163</v>
       </c>
-      <c r="E111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="8" t="s">
+      <c r="E111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H111" s="1" t="s">
+      <c r="H111" s="5" t="s">
         <v>20</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -6479,10 +6878,13 @@
         <v>20</v>
       </c>
       <c r="Q111" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="R111" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>76</v>
       </c>
@@ -6492,14 +6894,14 @@
       <c r="C112" t="s">
         <v>141</v>
       </c>
-      <c r="E112" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="8" t="s">
+      <c r="E112" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H112" s="1" t="s">
-        <v>20</v>
+      <c r="H112" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I112" s="1" t="s">
         <v>20</v>
@@ -6508,10 +6910,10 @@
         <v>20</v>
       </c>
       <c r="K112" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L112" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M112" s="1" t="s">
         <v>20</v>
@@ -6526,10 +6928,13 @@
         <v>20</v>
       </c>
       <c r="Q112" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R112" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>75</v>
       </c>
@@ -6539,14 +6944,14 @@
       <c r="C113" t="s">
         <v>143</v>
       </c>
-      <c r="E113" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="8" t="s">
+      <c r="E113" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H113" s="1" t="s">
-        <v>20</v>
+      <c r="H113" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
         <v>20</v>
@@ -6555,10 +6960,10 @@
         <v>20</v>
       </c>
       <c r="K113" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L113" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M113" s="1" t="s">
         <v>20</v>
@@ -6573,10 +6978,13 @@
         <v>20</v>
       </c>
       <c r="Q113" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R113" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -6586,14 +6994,14 @@
       <c r="C114" t="s">
         <v>144</v>
       </c>
-      <c r="E114" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="8" t="s">
+      <c r="E114" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>20</v>
+      <c r="H114" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I114" s="1" t="s">
         <v>20</v>
@@ -6602,10 +7010,10 @@
         <v>20</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L114" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M114" s="1" t="s">
         <v>20</v>
@@ -6620,10 +7028,13 @@
         <v>20</v>
       </c>
       <c r="Q114" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R114" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>119</v>
       </c>
@@ -6633,18 +7044,18 @@
       <c r="C115" t="s">
         <v>145</v>
       </c>
-      <c r="D115" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="8" t="s">
+      <c r="D115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H115" s="1" t="s">
+      <c r="H115" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I115" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I115" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J115" s="1" t="s">
         <v>12</v>
       </c>
@@ -6652,7 +7063,7 @@
         <v>12</v>
       </c>
       <c r="L115" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M115" s="1" t="s">
         <v>20</v>
@@ -6666,11 +7077,14 @@
       <c r="P115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q115" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q115" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R115" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>102</v>
       </c>
@@ -6680,14 +7094,14 @@
       <c r="C116" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="8" t="s">
+      <c r="E116" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>20</v>
+      <c r="H116" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I116" s="1" t="s">
         <v>20</v>
@@ -6696,10 +7110,10 @@
         <v>20</v>
       </c>
       <c r="K116" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L116" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M116" s="1" t="s">
         <v>20</v>
@@ -6713,11 +7127,14 @@
       <c r="P116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q116" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q116" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R116" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>98</v>
       </c>
@@ -6727,26 +7144,26 @@
       <c r="C117" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="8" t="s">
+      <c r="E117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H117" s="1" t="s">
+      <c r="H117" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I117" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I117" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J117" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="K117" s="1" t="s">
         <v>12</v>
       </c>
       <c r="L117" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M117" s="1" t="s">
         <v>20</v>
@@ -6760,11 +7177,14 @@
       <c r="P117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q117" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q117" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R117" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>84</v>
       </c>
@@ -6774,29 +7194,29 @@
       <c r="C118" t="s">
         <v>149</v>
       </c>
-      <c r="D118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="8" t="s">
+      <c r="D118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H118" s="1" t="s">
+      <c r="H118" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I118" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I118" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="J118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K118" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L118" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M118" s="1" t="s">
         <v>20</v>
@@ -6810,11 +7230,14 @@
       <c r="P118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q118" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q118" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R118" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>86</v>
       </c>
@@ -6824,14 +7247,14 @@
       <c r="C119" t="s">
         <v>150</v>
       </c>
-      <c r="E119" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="8" t="s">
+      <c r="E119" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>20</v>
+      <c r="H119" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I119" s="1" t="s">
         <v>20</v>
@@ -6840,10 +7263,10 @@
         <v>20</v>
       </c>
       <c r="K119" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="L119" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M119" s="1" t="s">
         <v>20</v>
@@ -6857,11 +7280,14 @@
       <c r="P119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q119" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q119" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R119" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>83</v>
       </c>
@@ -6871,21 +7297,21 @@
       <c r="C120" t="s">
         <v>151</v>
       </c>
-      <c r="D120" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="8" t="s">
+      <c r="D120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="1" t="s">
+      <c r="H120" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I120" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I120" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="J120" s="1" t="s">
         <v>12</v>
       </c>
@@ -6893,7 +7319,7 @@
         <v>12</v>
       </c>
       <c r="L120" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M120" s="1" t="s">
         <v>20</v>
@@ -6907,11 +7333,14 @@
       <c r="P120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q120" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q120" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R120" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>88</v>
       </c>
@@ -6921,17 +7350,17 @@
       <c r="C121" t="s">
         <v>152</v>
       </c>
-      <c r="E121" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="8" t="s">
+      <c r="E121" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="1" t="s">
-        <v>20</v>
+      <c r="H121" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J121" s="1" t="s">
         <v>12</v>
@@ -6940,7 +7369,7 @@
         <v>12</v>
       </c>
       <c r="L121" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M121" s="1" t="s">
         <v>20</v>
@@ -6954,11 +7383,14 @@
       <c r="P121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q121" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q121" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R121" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>87</v>
       </c>
@@ -6968,17 +7400,17 @@
       <c r="C122" t="s">
         <v>153</v>
       </c>
-      <c r="E122" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="8" t="s">
+      <c r="E122" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="1" t="s">
-        <v>20</v>
+      <c r="H122" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>12</v>
@@ -6987,7 +7419,7 @@
         <v>12</v>
       </c>
       <c r="L122" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M122" s="1" t="s">
         <v>20</v>
@@ -7001,11 +7433,14 @@
       <c r="P122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q122" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="Q122" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R122" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>85</v>
       </c>
@@ -7015,17 +7450,17 @@
       <c r="C123" t="s">
         <v>154</v>
       </c>
-      <c r="E123" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="8" t="s">
+      <c r="E123" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H123" s="1" t="s">
-        <v>20</v>
+      <c r="H123" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J123" s="1" t="s">
         <v>12</v>
@@ -7034,7 +7469,7 @@
         <v>12</v>
       </c>
       <c r="L123" s="1" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M123" s="1" t="s">
         <v>20</v>
@@ -7048,24 +7483,43 @@
       <c r="P123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="Q123" s="3" t="s">
+      <c r="Q123" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="R123" s="2" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q123" xr:uid="{DC0CE753-73B2-6B4B-A592-99605D94DFD6}"/>
+  <autoFilter ref="A2:R123" xr:uid="{DC0CE753-73B2-6B4B-A592-99605D94DFD6}"/>
   <mergeCells count="2">
     <mergeCell ref="D1:F1"/>
-    <mergeCell ref="H1:Q1"/>
+    <mergeCell ref="H1:R1"/>
   </mergeCells>
-  <conditionalFormatting sqref="H2:J83 H88:J1048576 H111:O111 H1">
-    <cfRule type="endsWith" dxfId="1" priority="2" operator="endsWith" text="?">
+  <conditionalFormatting sqref="I2:K83 I88:K1048576 I111:P111 H1">
+    <cfRule type="endsWith" dxfId="8" priority="6" operator="endsWith" text="?">
       <formula>RIGHT(H1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H2:Q67 H78:Q80 H68:P77 H81:P88 H89:Q114 H124:Q1048576 H115:P123 H1">
-    <cfRule type="endsWith" dxfId="0" priority="1" operator="endsWith" text="?">
+  <conditionalFormatting sqref="I2:R67 I78:R80 I68:Q77 I81:Q88 I89:R114 I124:R1048576 I115:Q123 H1">
+    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="?">
       <formula>RIGHT(H1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="endsWith" dxfId="6" priority="4" operator="endsWith" text="?">
+      <formula>RIGHT(H1,LEN("?"))="?"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:R1048576">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"Y"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"N"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"Maybe"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/prepped/MetricSources.xlsx
+++ b/data/prepped/MetricSources.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seek/Documents/GitProjects/MyProjects/QRFcapacity/data/prepped/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\QRFcapacity\data\prepped\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C67A6DB-82B2-C342-815E-FFF47B3BC284}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4041946E-7B89-4A16-95D0-981942FD1DCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="460" windowWidth="27640" windowHeight="16940" xr2:uid="{63395C09-D57F-C64C-B6BC-1B1F1C19F834}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{63395C09-D57F-C64C-B6BC-1B1F1C19F834}"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
@@ -660,7 +660,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -698,12 +698,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -776,19 +770,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -818,31 +806,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color theme="4" tint="-0.499984740745262"/>
@@ -850,16 +824,6 @@
       <fill>
         <patternFill>
           <bgColor theme="4" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1273,109 +1237,109 @@
   <dimension ref="A1:R123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D102" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N97" sqref="N97"/>
+      <selection pane="bottomRight" activeCell="I121" sqref="I121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.19921875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" style="7" customWidth="1"/>
-    <col min="8" max="8" width="12.1640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-    <col min="10" max="10" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" customWidth="1"/>
-    <col min="12" max="12" width="33.83203125" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="17.296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="11.69921875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="16.19921875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="12.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="6.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.796875" customWidth="1"/>
+    <col min="12" max="12" width="33.796875" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="27.5" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.796875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="H1" s="6" t="s">
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
-      <c r="P1" s="4"/>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-    </row>
-    <row r="2" spans="1:18" s="8" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>117</v>
       </c>
@@ -1385,13 +1349,13 @@
       <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -1425,7 +1389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>118</v>
       </c>
@@ -1435,13 +1399,13 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="D4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I4" s="1" t="s">
@@ -1475,7 +1439,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1485,13 +1449,13 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="1" t="s">
@@ -1525,7 +1489,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -1535,13 +1499,13 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I6" s="1" t="s">
@@ -1569,7 +1533,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>8</v>
       </c>
@@ -1579,13 +1543,13 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I7" s="1" t="s">
@@ -1613,7 +1577,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -1623,16 +1587,16 @@
       <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="D8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I8" s="1" t="s">
@@ -1660,7 +1624,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1670,16 +1634,16 @@
       <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="7" t="s">
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1713,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>112</v>
       </c>
@@ -1723,13 +1687,13 @@
       <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="7" t="s">
+      <c r="D10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I10" s="1" t="s">
@@ -1763,7 +1727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>114</v>
       </c>
@@ -1773,13 +1737,13 @@
       <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="D11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="1" t="s">
@@ -1813,7 +1777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>116</v>
       </c>
@@ -1823,13 +1787,13 @@
       <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="7" t="s">
+      <c r="D12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -1863,7 +1827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>115</v>
       </c>
@@ -1873,13 +1837,13 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="D13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I13" s="1" t="s">
@@ -1913,7 +1877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>113</v>
       </c>
@@ -1923,13 +1887,13 @@
       <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H14" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -1963,7 +1927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>111</v>
       </c>
@@ -1973,13 +1937,13 @@
       <c r="C15" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="7" t="s">
+      <c r="E15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I15" s="1" t="s">
@@ -2013,7 +1977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -2023,13 +1987,13 @@
       <c r="C16" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="1" t="s">
@@ -2063,7 +2027,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>23</v>
       </c>
@@ -2073,13 +2037,13 @@
       <c r="C17" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="E17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I17" s="1" t="s">
@@ -2113,7 +2077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>58</v>
       </c>
@@ -2123,13 +2087,13 @@
       <c r="C18" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="7" t="s">
+      <c r="E18" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I18" s="1" t="s">
@@ -2163,7 +2127,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -2173,13 +2137,13 @@
       <c r="C19" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="E19" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I19" s="1" t="s">
@@ -2213,7 +2177,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>24</v>
       </c>
@@ -2223,13 +2187,13 @@
       <c r="C20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="7" t="s">
+      <c r="E20" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I20" s="1" t="s">
@@ -2263,7 +2227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -2273,13 +2237,13 @@
       <c r="C21" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I21" s="1" t="s">
@@ -2313,7 +2277,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -2323,13 +2287,13 @@
       <c r="C22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="E22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I22" s="1" t="s">
@@ -2363,7 +2327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>57</v>
       </c>
@@ -2373,13 +2337,13 @@
       <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I23" s="1" t="s">
@@ -2413,7 +2377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -2423,13 +2387,13 @@
       <c r="C24" t="s">
         <v>44</v>
       </c>
-      <c r="E24" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="E24" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -2463,7 +2427,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -2473,13 +2437,13 @@
       <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="E25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I25" s="1" t="s">
@@ -2513,7 +2477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>14</v>
       </c>
@@ -2523,13 +2487,13 @@
       <c r="C26" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="E26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -2563,7 +2527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>15</v>
       </c>
@@ -2573,13 +2537,13 @@
       <c r="C27" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="7" t="s">
+      <c r="E27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I27" s="1" t="s">
@@ -2613,7 +2577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>56</v>
       </c>
@@ -2623,13 +2587,13 @@
       <c r="C28" t="s">
         <v>48</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="E28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -2663,7 +2627,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>17</v>
       </c>
@@ -2673,13 +2637,13 @@
       <c r="C29" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="7" t="s">
+      <c r="E29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I29" s="1" t="s">
@@ -2713,7 +2677,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>16</v>
       </c>
@@ -2723,13 +2687,13 @@
       <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
+      <c r="E30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -2763,7 +2727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>42</v>
       </c>
@@ -2773,13 +2737,13 @@
       <c r="C31" t="s">
         <v>51</v>
       </c>
-      <c r="E31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="7" t="s">
+      <c r="E31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I31" s="1" t="s">
@@ -2813,7 +2777,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>40</v>
       </c>
@@ -2823,13 +2787,13 @@
       <c r="C32" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="7" t="s">
+      <c r="E32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="H32" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I32" s="1" t="s">
@@ -2863,7 +2827,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>47</v>
       </c>
@@ -2873,13 +2837,13 @@
       <c r="C33" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="7" t="s">
+      <c r="E33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I33" s="1" t="s">
@@ -2913,7 +2877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>46</v>
       </c>
@@ -2923,13 +2887,13 @@
       <c r="C34" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="H34" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I34" s="1" t="s">
@@ -2963,7 +2927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>44</v>
       </c>
@@ -2973,13 +2937,13 @@
       <c r="C35" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="7" t="s">
+      <c r="E35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H35" s="5" t="s">
+      <c r="H35" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I35" s="1" t="s">
@@ -3013,7 +2977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>33</v>
       </c>
@@ -3023,16 +2987,16 @@
       <c r="C36" t="s">
         <v>57</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="7" t="s">
+      <c r="E36" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="H36" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I36" s="1" t="s">
@@ -3066,7 +3030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -3076,16 +3040,16 @@
       <c r="C37" t="s">
         <v>58</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="7" t="s">
+      <c r="D37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H37" s="5" t="s">
+      <c r="H37" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I37" s="1" t="s">
@@ -3113,7 +3077,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43</v>
       </c>
@@ -3123,16 +3087,16 @@
       <c r="C38" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="7" t="s">
+      <c r="D38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I38" s="1" t="s">
@@ -3166,7 +3130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>27</v>
       </c>
@@ -3176,13 +3140,13 @@
       <c r="C39" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="7" t="s">
+      <c r="E39" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H39" s="5" t="s">
+      <c r="H39" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3216,7 +3180,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>41</v>
       </c>
@@ -3226,13 +3190,13 @@
       <c r="C40" t="s">
         <v>62</v>
       </c>
-      <c r="E40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="7" t="s">
+      <c r="E40" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I40" s="1" t="s">
@@ -3260,7 +3224,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>38</v>
       </c>
@@ -3270,13 +3234,13 @@
       <c r="C41" t="s">
         <v>63</v>
       </c>
-      <c r="E41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="7" t="s">
+      <c r="E41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H41" s="5" t="s">
+      <c r="H41" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -3310,7 +3274,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>51</v>
       </c>
@@ -3320,16 +3284,16 @@
       <c r="C42" t="s">
         <v>65</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="7" t="s">
+      <c r="D42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I42" s="1" t="s">
@@ -3363,7 +3327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>50</v>
       </c>
@@ -3373,16 +3337,16 @@
       <c r="C43" t="s">
         <v>66</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="7" t="s">
+      <c r="D43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H43" s="5" t="s">
+      <c r="H43" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -3416,7 +3380,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>48</v>
       </c>
@@ -3426,16 +3390,16 @@
       <c r="C44" t="s">
         <v>67</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="7" t="s">
+      <c r="D44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="5" t="s">
+      <c r="H44" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I44" s="1" t="s">
@@ -3469,7 +3433,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>103</v>
       </c>
@@ -3479,16 +3443,16 @@
       <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7" t="s">
+      <c r="D45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H45" s="5" t="s">
+      <c r="H45" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -3522,7 +3486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>100</v>
       </c>
@@ -3532,16 +3496,16 @@
       <c r="C46" t="s">
         <v>70</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="7" t="s">
+      <c r="D46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H46" s="5" t="s">
+      <c r="H46" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I46" s="1" t="s">
@@ -3575,7 +3539,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>96</v>
       </c>
@@ -3585,16 +3549,16 @@
       <c r="C47" t="s">
         <v>71</v>
       </c>
-      <c r="D47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
+      <c r="D47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H47" s="5" t="s">
+      <c r="H47" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I47" s="1" t="s">
@@ -3628,7 +3592,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>101</v>
       </c>
@@ -3638,16 +3602,16 @@
       <c r="C48" t="s">
         <v>72</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="7" t="s">
+      <c r="D48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H48" s="5" t="s">
+      <c r="H48" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I48" s="1" t="s">
@@ -3681,7 +3645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>106</v>
       </c>
@@ -3691,16 +3655,16 @@
       <c r="C49" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="7" t="s">
+      <c r="D49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H49" s="5" t="s">
+      <c r="H49" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I49" s="1" t="s">
@@ -3734,7 +3698,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>99</v>
       </c>
@@ -3744,16 +3708,16 @@
       <c r="C50" t="s">
         <v>74</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G50" s="7" t="s">
+      <c r="D50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H50" s="5" t="s">
+      <c r="H50" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I50" s="1" t="s">
@@ -3787,7 +3751,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>91</v>
       </c>
@@ -3797,16 +3761,16 @@
       <c r="C51" t="s">
         <v>75</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G51" s="7" t="s">
+      <c r="D51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H51" s="5" t="s">
+      <c r="H51" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I51" s="1" t="s">
@@ -3840,7 +3804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>108</v>
       </c>
@@ -3850,13 +3814,13 @@
       <c r="C52" t="s">
         <v>76</v>
       </c>
-      <c r="E52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G52" s="7" t="s">
+      <c r="E52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H52" s="5" t="s">
+      <c r="H52" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I52" s="1" t="s">
@@ -3890,7 +3854,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>107</v>
       </c>
@@ -3900,13 +3864,13 @@
       <c r="C53" t="s">
         <v>77</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G53" s="7" t="s">
+      <c r="E53" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="H53" s="5" t="s">
+      <c r="H53" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I53" s="1" t="s">
@@ -3940,7 +3904,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>10</v>
       </c>
@@ -3950,13 +3914,13 @@
       <c r="C54" t="s">
         <v>78</v>
       </c>
-      <c r="F54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G54" s="7" t="s">
+      <c r="F54" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H54" s="5" t="s">
+      <c r="H54" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I54" s="1" t="s">
@@ -3990,7 +3954,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>11</v>
       </c>
@@ -4000,13 +3964,13 @@
       <c r="C55" t="s">
         <v>80</v>
       </c>
-      <c r="F55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G55" s="7" t="s">
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H55" s="5" t="s">
+      <c r="H55" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I55" s="1" t="s">
@@ -4034,7 +3998,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>12</v>
       </c>
@@ -4044,13 +4008,13 @@
       <c r="C56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="7" t="s">
+      <c r="F56" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H56" s="5" t="s">
+      <c r="H56" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I56" s="1" t="s">
@@ -4078,7 +4042,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>6</v>
       </c>
@@ -4088,19 +4052,19 @@
       <c r="C57" t="s">
         <v>82</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G57" s="7" t="s">
+      <c r="D57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H57" s="5" t="s">
+      <c r="H57" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I57" s="1" t="s">
@@ -4128,7 +4092,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>77</v>
       </c>
@@ -4138,16 +4102,16 @@
       <c r="C58" t="s">
         <v>83</v>
       </c>
-      <c r="D58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G58" s="7" t="s">
+      <c r="D58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H58" s="5" t="s">
+      <c r="H58" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I58" s="1" t="s">
@@ -4181,7 +4145,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>90</v>
       </c>
@@ -4191,19 +4155,19 @@
       <c r="C59" t="s">
         <v>85</v>
       </c>
-      <c r="D59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F59" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="7" t="s">
+      <c r="D59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H59" s="5" t="s">
+      <c r="H59" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I59" s="1" t="s">
@@ -4237,7 +4201,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>78</v>
       </c>
@@ -4247,16 +4211,16 @@
       <c r="C60" t="s">
         <v>86</v>
       </c>
-      <c r="D60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E60" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="7" t="s">
+      <c r="D60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H60" s="5" t="s">
+      <c r="H60" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I60" s="1" t="s">
@@ -4290,7 +4254,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>79</v>
       </c>
@@ -4300,16 +4264,16 @@
       <c r="C61" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E61" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="7" t="s">
+      <c r="D61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H61" s="5" t="s">
+      <c r="H61" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I61" s="1" t="s">
@@ -4343,7 +4307,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>94</v>
       </c>
@@ -4353,16 +4317,16 @@
       <c r="C62" t="s">
         <v>88</v>
       </c>
-      <c r="D62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E62" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="7" t="s">
+      <c r="D62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H62" s="5" t="s">
+      <c r="H62" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I62" s="1" t="s">
@@ -4396,7 +4360,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>80</v>
       </c>
@@ -4406,16 +4370,16 @@
       <c r="C63" t="s">
         <v>89</v>
       </c>
-      <c r="D63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="7" t="s">
+      <c r="D63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H63" s="5" t="s">
+      <c r="H63" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I63" s="1" t="s">
@@ -4449,7 +4413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>81</v>
       </c>
@@ -4459,16 +4423,16 @@
       <c r="C64" t="s">
         <v>90</v>
       </c>
-      <c r="D64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E64" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="7" t="s">
+      <c r="D64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H64" s="5" t="s">
+      <c r="H64" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I64" s="1" t="s">
@@ -4502,7 +4466,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>93</v>
       </c>
@@ -4512,16 +4476,16 @@
       <c r="C65" t="s">
         <v>91</v>
       </c>
-      <c r="D65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E65" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="7" t="s">
+      <c r="D65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H65" s="5" t="s">
+      <c r="H65" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I65" s="1" t="s">
@@ -4555,7 +4519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>82</v>
       </c>
@@ -4565,16 +4529,16 @@
       <c r="C66" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E66" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="7" t="s">
+      <c r="D66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H66" s="5" t="s">
+      <c r="H66" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I66" s="1" t="s">
@@ -4608,17 +4572,17 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>159</v>
       </c>
-      <c r="E67" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="7" t="s">
+      <c r="E67" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H67" s="5" t="s">
+      <c r="H67" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I67" s="1" t="s">
@@ -4648,7 +4612,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>54</v>
       </c>
@@ -4658,13 +4622,13 @@
       <c r="C68" t="s">
         <v>93</v>
       </c>
-      <c r="E68" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="7" t="s">
+      <c r="E68" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H68" s="5" t="s">
+      <c r="H68" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I68" s="1" t="s">
@@ -4692,7 +4656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>109</v>
       </c>
@@ -4702,16 +4666,16 @@
       <c r="C69" t="s">
         <v>95</v>
       </c>
-      <c r="D69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E69" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="7" t="s">
+      <c r="D69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H69" s="5" t="s">
+      <c r="H69" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I69" s="1" t="s">
@@ -4745,7 +4709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>110</v>
       </c>
@@ -4755,13 +4719,13 @@
       <c r="C70" t="s">
         <v>96</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="7" t="s">
+      <c r="E70" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H70" s="5" t="s">
+      <c r="H70" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I70" s="1" t="s">
@@ -4795,7 +4759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>62</v>
       </c>
@@ -4805,13 +4769,13 @@
       <c r="C71" t="s">
         <v>97</v>
       </c>
-      <c r="E71" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="7" t="s">
+      <c r="E71" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H71" s="5" t="s">
+      <c r="H71" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I71" s="1" t="s">
@@ -4845,7 +4809,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>65</v>
       </c>
@@ -4855,13 +4819,13 @@
       <c r="C72" t="s">
         <v>98</v>
       </c>
-      <c r="E72" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="7" t="s">
+      <c r="E72" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H72" s="5" t="s">
+      <c r="H72" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I72" s="1" t="s">
@@ -4895,7 +4859,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>64</v>
       </c>
@@ -4905,13 +4869,13 @@
       <c r="C73" t="s">
         <v>99</v>
       </c>
-      <c r="E73" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G73" s="7" t="s">
+      <c r="E73" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H73" s="5" t="s">
+      <c r="H73" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I73" s="1" t="s">
@@ -4945,7 +4909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>66</v>
       </c>
@@ -4955,13 +4919,13 @@
       <c r="C74" t="s">
         <v>100</v>
       </c>
-      <c r="E74" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="7" t="s">
+      <c r="E74" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H74" s="5" t="s">
+      <c r="H74" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I74" s="1" t="s">
@@ -4995,7 +4959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>63</v>
       </c>
@@ -5005,13 +4969,13 @@
       <c r="C75" t="s">
         <v>101</v>
       </c>
-      <c r="E75" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="7" t="s">
+      <c r="E75" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H75" s="5" t="s">
+      <c r="H75" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I75" s="1" t="s">
@@ -5045,7 +5009,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>61</v>
       </c>
@@ -5055,13 +5019,13 @@
       <c r="C76" t="s">
         <v>102</v>
       </c>
-      <c r="E76" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G76" s="7" t="s">
+      <c r="E76" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H76" s="5" t="s">
+      <c r="H76" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I76" s="1" t="s">
@@ -5095,7 +5059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>55</v>
       </c>
@@ -5105,16 +5069,16 @@
       <c r="C77" t="s">
         <v>103</v>
       </c>
-      <c r="D77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E77" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G77" s="7" t="s">
+      <c r="D77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H77" s="5" t="s">
+      <c r="H77" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I77" s="1" t="s">
@@ -5148,7 +5112,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>7</v>
       </c>
@@ -5158,19 +5122,19 @@
       <c r="C78" t="s">
         <v>104</v>
       </c>
-      <c r="D78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G78" s="7" t="s">
+      <c r="D78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H78" s="5" t="s">
+      <c r="H78" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I78" s="1" t="s">
@@ -5204,7 +5168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>13</v>
       </c>
@@ -5214,13 +5178,13 @@
       <c r="C79" t="s">
         <v>106</v>
       </c>
-      <c r="E79" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G79" s="7" t="s">
+      <c r="E79" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H79" s="5" t="s">
+      <c r="H79" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I79" s="1" t="s">
@@ -5248,7 +5212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>5</v>
       </c>
@@ -5258,16 +5222,16 @@
       <c r="C80" t="s">
         <v>107</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E80" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G80" s="7" t="s">
+      <c r="D80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H80" s="5" t="s">
+      <c r="H80" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I80" s="1" t="s">
@@ -5295,7 +5259,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>30</v>
       </c>
@@ -5305,16 +5269,16 @@
       <c r="C81" t="s">
         <v>108</v>
       </c>
-      <c r="D81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E81" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G81" s="7" t="s">
+      <c r="D81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H81" s="5" t="s">
+      <c r="H81" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I81" s="1" t="s">
@@ -5348,7 +5312,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>29</v>
       </c>
@@ -5358,16 +5322,16 @@
       <c r="C82" t="s">
         <v>109</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E82" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G82" s="7" t="s">
+      <c r="D82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H82" s="5" t="s">
+      <c r="H82" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I82" s="1" t="s">
@@ -5401,7 +5365,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>36</v>
       </c>
@@ -5411,13 +5375,13 @@
       <c r="C83" t="s">
         <v>110</v>
       </c>
-      <c r="E83" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G83" s="7" t="s">
+      <c r="E83" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H83" s="5" t="s">
+      <c r="H83" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="1" t="s">
@@ -5451,7 +5415,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>45</v>
       </c>
@@ -5461,13 +5425,13 @@
       <c r="C84" t="s">
         <v>111</v>
       </c>
-      <c r="E84" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G84" s="7" t="s">
+      <c r="E84" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H84" s="5" t="s">
+      <c r="H84" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I84" s="2" t="s">
@@ -5501,7 +5465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>34</v>
       </c>
@@ -5511,13 +5475,13 @@
       <c r="C85" t="s">
         <v>112</v>
       </c>
-      <c r="E85" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G85" s="7" t="s">
+      <c r="E85" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H85" s="5" t="s">
+      <c r="H85" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I85" s="2" t="s">
@@ -5545,7 +5509,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>53</v>
       </c>
@@ -5555,13 +5519,13 @@
       <c r="C86" t="s">
         <v>113</v>
       </c>
-      <c r="E86" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G86" s="7" t="s">
+      <c r="E86" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H86" s="5" t="s">
+      <c r="H86" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I86" s="2" t="s">
@@ -5595,7 +5559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>52</v>
       </c>
@@ -5605,13 +5569,13 @@
       <c r="C87" t="s">
         <v>114</v>
       </c>
-      <c r="E87" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G87" s="7" t="s">
+      <c r="E87" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H87" s="5" t="s">
+      <c r="H87" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I87" s="2" t="s">
@@ -5645,7 +5609,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>59</v>
       </c>
@@ -5655,16 +5619,16 @@
       <c r="C88" t="s">
         <v>115</v>
       </c>
-      <c r="D88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E88" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G88" s="7" t="s">
+      <c r="D88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H88" s="5" t="s">
+      <c r="H88" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I88" s="1" t="s">
@@ -5698,7 +5662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>26</v>
       </c>
@@ -5708,16 +5672,16 @@
       <c r="C89" t="s">
         <v>116</v>
       </c>
-      <c r="D89" s="5" t="s">
+      <c r="D89" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E89" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G89" s="7" t="s">
+      <c r="E89" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H89" s="5" t="s">
+      <c r="H89" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I89" s="1" t="s">
@@ -5751,7 +5715,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>39</v>
       </c>
@@ -5761,13 +5725,13 @@
       <c r="C90" t="s">
         <v>117</v>
       </c>
-      <c r="E90" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="7" t="s">
+      <c r="E90" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H90" s="5" t="s">
+      <c r="H90" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I90" s="1" t="s">
@@ -5801,7 +5765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>28</v>
       </c>
@@ -5811,19 +5775,19 @@
       <c r="C91" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G91" s="7" t="s">
+      <c r="D91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H91" s="5" t="s">
+      <c r="H91" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I91" s="1" t="s">
@@ -5857,7 +5821,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>37</v>
       </c>
@@ -5867,16 +5831,16 @@
       <c r="C92" t="s">
         <v>119</v>
       </c>
-      <c r="D92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E92" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="7" t="s">
+      <c r="D92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H92" s="5" t="s">
+      <c r="H92" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I92" s="1" t="s">
@@ -5910,7 +5874,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>60</v>
       </c>
@@ -5920,16 +5884,16 @@
       <c r="C93" t="s">
         <v>120</v>
       </c>
-      <c r="D93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E93" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G93" s="7" t="s">
+      <c r="D93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H93" s="5" t="s">
+      <c r="H93" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I93" s="1" t="s">
@@ -5963,7 +5927,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>67</v>
       </c>
@@ -5973,13 +5937,13 @@
       <c r="C94" t="s">
         <v>121</v>
       </c>
-      <c r="E94" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="7" t="s">
+      <c r="E94" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H94" s="5" t="s">
+      <c r="H94" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I94" s="1" t="s">
@@ -6013,7 +5977,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>31</v>
       </c>
@@ -6023,16 +5987,16 @@
       <c r="C95" t="s">
         <v>123</v>
       </c>
-      <c r="D95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E95" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G95" s="7" t="s">
+      <c r="D95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H95" s="5" t="s">
+      <c r="H95" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I95" s="1" t="s">
@@ -6066,7 +6030,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>49</v>
       </c>
@@ -6076,16 +6040,16 @@
       <c r="C96" t="s">
         <v>124</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E96" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="7" t="s">
+      <c r="D96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H96" s="5" t="s">
+      <c r="H96" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I96" s="1" t="s">
@@ -6119,7 +6083,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>32</v>
       </c>
@@ -6129,16 +6093,16 @@
       <c r="C97" t="s">
         <v>125</v>
       </c>
-      <c r="D97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E97" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="7" t="s">
+      <c r="D97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="H97" s="5" t="s">
+      <c r="H97" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I97" s="1" t="s">
@@ -6166,7 +6130,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>70</v>
       </c>
@@ -6176,16 +6140,16 @@
       <c r="C98" t="s">
         <v>126</v>
       </c>
-      <c r="D98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E98" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G98" s="7" t="s">
+      <c r="D98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H98" s="5" t="s">
+      <c r="H98" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I98" s="1" t="s">
@@ -6219,7 +6183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>71</v>
       </c>
@@ -6229,16 +6193,16 @@
       <c r="C99" t="s">
         <v>128</v>
       </c>
-      <c r="D99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E99" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="7" t="s">
+      <c r="D99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H99" s="5" t="s">
+      <c r="H99" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I99" s="1" t="s">
@@ -6272,7 +6236,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>72</v>
       </c>
@@ -6282,16 +6246,16 @@
       <c r="C100" t="s">
         <v>129</v>
       </c>
-      <c r="D100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E100" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G100" s="7" t="s">
+      <c r="D100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H100" s="5" t="s">
+      <c r="H100" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I100" s="1" t="s">
@@ -6325,7 +6289,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>68</v>
       </c>
@@ -6335,16 +6299,16 @@
       <c r="C101" t="s">
         <v>130</v>
       </c>
-      <c r="D101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E101" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="7" t="s">
+      <c r="D101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H101" s="5" t="s">
+      <c r="H101" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I101" s="1" t="s">
@@ -6378,7 +6342,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>69</v>
       </c>
@@ -6388,16 +6352,16 @@
       <c r="C102" t="s">
         <v>131</v>
       </c>
-      <c r="D102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G102" s="7" t="s">
+      <c r="D102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H102" s="5" t="s">
+      <c r="H102" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I102" s="1" t="s">
@@ -6425,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>104</v>
       </c>
@@ -6435,16 +6399,16 @@
       <c r="C103" t="s">
         <v>132</v>
       </c>
-      <c r="D103" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E103" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="7" t="s">
+      <c r="D103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H103" s="5" t="s">
+      <c r="H103" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I103" s="1" t="s">
@@ -6478,7 +6442,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>105</v>
       </c>
@@ -6488,16 +6452,16 @@
       <c r="C104" t="s">
         <v>133</v>
       </c>
-      <c r="D104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E104" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G104" s="7" t="s">
+      <c r="D104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H104" s="5" t="s">
+      <c r="H104" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I104" s="1" t="s">
@@ -6531,7 +6495,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>95</v>
       </c>
@@ -6541,16 +6505,16 @@
       <c r="C105" t="s">
         <v>134</v>
       </c>
-      <c r="D105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E105" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G105" s="7" t="s">
+      <c r="D105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H105" s="5" t="s">
+      <c r="H105" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I105" s="1" t="s">
@@ -6584,7 +6548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>97</v>
       </c>
@@ -6594,16 +6558,16 @@
       <c r="C106" t="s">
         <v>135</v>
       </c>
-      <c r="D106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E106" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G106" s="7" t="s">
+      <c r="D106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H106" s="5" t="s">
+      <c r="H106" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I106" s="1" t="s">
@@ -6637,7 +6601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>73</v>
       </c>
@@ -6647,16 +6611,16 @@
       <c r="C107" t="s">
         <v>136</v>
       </c>
-      <c r="D107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E107" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G107" s="7" t="s">
+      <c r="D107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H107" s="5" t="s">
+      <c r="H107" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I107" s="1" t="s">
@@ -6684,7 +6648,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>74</v>
       </c>
@@ -6694,16 +6658,16 @@
       <c r="C108" t="s">
         <v>137</v>
       </c>
-      <c r="D108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E108" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="7" t="s">
+      <c r="D108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="H108" s="5" t="s">
+      <c r="H108" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I108" s="1" t="s">
@@ -6731,7 +6695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>1</v>
       </c>
@@ -6741,16 +6705,16 @@
       <c r="C109" t="s">
         <v>138</v>
       </c>
-      <c r="D109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E109" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G109" s="7" t="s">
+      <c r="D109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H109" s="5" t="s">
+      <c r="H109" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I109" s="1" t="s">
@@ -6784,7 +6748,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>92</v>
       </c>
@@ -6794,16 +6758,16 @@
       <c r="C110" t="s">
         <v>140</v>
       </c>
-      <c r="E110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G110" s="7" t="s">
+      <c r="E110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H110" s="5" t="s">
+      <c r="H110" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I110" s="1" t="s">
@@ -6837,20 +6801,20 @@
         <v>19</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C111" t="s">
         <v>163</v>
       </c>
-      <c r="E111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G111" s="7" t="s">
+      <c r="E111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H111" s="5" t="s">
+      <c r="H111" s="4" t="s">
         <v>20</v>
       </c>
       <c r="I111" s="1" t="s">
@@ -6884,7 +6848,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>76</v>
       </c>
@@ -6894,13 +6858,13 @@
       <c r="C112" t="s">
         <v>141</v>
       </c>
-      <c r="E112" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="7" t="s">
+      <c r="E112" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H112" s="5" t="s">
+      <c r="H112" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I112" s="1" t="s">
@@ -6934,7 +6898,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>75</v>
       </c>
@@ -6944,13 +6908,13 @@
       <c r="C113" t="s">
         <v>143</v>
       </c>
-      <c r="E113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="7" t="s">
+      <c r="E113" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H113" s="5" t="s">
+      <c r="H113" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I113" s="1" t="s">
@@ -6984,7 +6948,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>89</v>
       </c>
@@ -6994,13 +6958,13 @@
       <c r="C114" t="s">
         <v>144</v>
       </c>
-      <c r="E114" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G114" s="7" t="s">
+      <c r="E114" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="H114" s="5" t="s">
+      <c r="H114" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I114" s="1" t="s">
@@ -7034,7 +6998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>119</v>
       </c>
@@ -7044,17 +7008,17 @@
       <c r="C115" t="s">
         <v>145</v>
       </c>
-      <c r="D115" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="7" t="s">
+      <c r="D115" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H115" s="5" t="s">
+      <c r="H115" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>12</v>
@@ -7084,7 +7048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>102</v>
       </c>
@@ -7094,13 +7058,13 @@
       <c r="C116" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G116" s="7" t="s">
+      <c r="E116" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G116" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H116" s="5" t="s">
+      <c r="H116" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I116" s="1" t="s">
@@ -7134,7 +7098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>98</v>
       </c>
@@ -7144,17 +7108,17 @@
       <c r="C117" t="s">
         <v>148</v>
       </c>
-      <c r="E117" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="7" t="s">
+      <c r="E117" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H117" s="5" t="s">
+      <c r="H117" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J117" s="1" t="s">
         <v>20</v>
@@ -7184,7 +7148,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>84</v>
       </c>
@@ -7194,20 +7158,20 @@
       <c r="C118" t="s">
         <v>149</v>
       </c>
-      <c r="D118" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E118" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G118" s="7" t="s">
+      <c r="D118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G118" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H118" s="5" t="s">
+      <c r="H118" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J118" s="1" t="s">
         <v>20</v>
@@ -7237,7 +7201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>86</v>
       </c>
@@ -7247,13 +7211,13 @@
       <c r="C119" t="s">
         <v>150</v>
       </c>
-      <c r="E119" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="7" t="s">
+      <c r="E119" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G119" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H119" s="5" t="s">
+      <c r="H119" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I119" s="1" t="s">
@@ -7287,7 +7251,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>83</v>
       </c>
@@ -7297,20 +7261,20 @@
       <c r="C120" t="s">
         <v>151</v>
       </c>
-      <c r="D120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E120" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G120" s="7" t="s">
+      <c r="D120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G120" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H120" s="5" t="s">
+      <c r="H120" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="J120" s="1" t="s">
         <v>12</v>
@@ -7340,7 +7304,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>88</v>
       </c>
@@ -7350,13 +7314,13 @@
       <c r="C121" t="s">
         <v>152</v>
       </c>
-      <c r="E121" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G121" s="7" t="s">
+      <c r="E121" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G121" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H121" s="5" t="s">
+      <c r="H121" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I121" s="1" t="s">
@@ -7390,7 +7354,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="122" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>87</v>
       </c>
@@ -7400,13 +7364,13 @@
       <c r="C122" t="s">
         <v>153</v>
       </c>
-      <c r="E122" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G122" s="7" t="s">
+      <c r="E122" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G122" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H122" s="5" t="s">
+      <c r="H122" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I122" s="1" t="s">
@@ -7440,7 +7404,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="123" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>85</v>
       </c>
@@ -7450,13 +7414,13 @@
       <c r="C123" t="s">
         <v>154</v>
       </c>
-      <c r="E123" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G123" s="7" t="s">
+      <c r="E123" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G123" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="H123" s="5" t="s">
+      <c r="H123" s="4" t="s">
         <v>12</v>
       </c>
       <c r="I123" s="1" t="s">
@@ -7497,28 +7461,28 @@
     <mergeCell ref="H1:R1"/>
   </mergeCells>
   <conditionalFormatting sqref="I2:K83 I88:K1048576 I111:P111 H1">
-    <cfRule type="endsWith" dxfId="8" priority="6" operator="endsWith" text="?">
+    <cfRule type="endsWith" dxfId="5" priority="6" operator="endsWith" text="?">
       <formula>RIGHT(H1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2:R67 I78:R80 I68:Q77 I81:Q88 I89:R114 I124:R1048576 I115:Q123 H1">
-    <cfRule type="endsWith" dxfId="7" priority="5" operator="endsWith" text="?">
+    <cfRule type="endsWith" dxfId="4" priority="5" operator="endsWith" text="?">
       <formula>RIGHT(H1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H1048576">
-    <cfRule type="endsWith" dxfId="6" priority="4" operator="endsWith" text="?">
+    <cfRule type="endsWith" dxfId="3" priority="4" operator="endsWith" text="?">
       <formula>RIGHT(H1,LEN("?"))="?"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:R1048576">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"Y"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>"N"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Maybe"</formula>
     </cfRule>
   </conditionalFormatting>
